--- a/test_data/cai/partnerset_test_data.xlsx
+++ b/test_data/cai/partnerset_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1200" windowWidth="23760" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="23760" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名称0</t>
     <rPh sb="0" eb="1">
@@ -87,9 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增股东成功！</t>
-  </si>
-  <si>
     <t>1、股东名称为空，保存失败，text-danger</t>
     <rPh sb="2" eb="3">
       <t>gu dong</t>
@@ -145,6 +142,43 @@
   </si>
   <si>
     <t>hello</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、添加一名股东</t>
+    <rPh sb="2" eb="3">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gu dong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增股东成功！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增股东成功！</t>
+    <rPh sb="0" eb="1">
+      <t>xin zneg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <rPh sb="0" eb="1">
+      <t>zhang san</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +579,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -556,21 +590,35 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10982</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/partnerset_test_data.xlsx
+++ b/test_data/cai/partnerset_test_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="23760" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="1860" windowWidth="23760" windowHeight="12540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>名称0</t>
     <rPh sb="0" eb="1">
@@ -180,6 +181,90 @@
       <t>zhang san</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>短期投资</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>应收票据</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>应收账款</t>
+  </si>
+  <si>
+    <t>预收账款</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>应收股利</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>应收利息</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>应付利润</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>其中：原材料</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>行次</t>
+  </si>
+  <si>
+    <t>期末余额</t>
+  </si>
+  <si>
+    <t>年初余额</t>
+  </si>
+  <si>
+    <t>负债和所有者权益</t>
+  </si>
+  <si>
+    <t>流动资产：</t>
+  </si>
+  <si>
+    <t>流动负债：</t>
   </si>
 </sst>
 </file>
@@ -189,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +306,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF656980"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF656980"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -264,12 +364,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -549,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,4 +728,333 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-54366.76</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-901.44</v>
+      </c>
+      <c r="H4" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6">
+        <v>400</v>
+      </c>
+      <c r="H5" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>113514.13</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>172479.28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>101100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>26117.83</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>81879.759999999995</v>
+      </c>
+      <c r="D8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7496.42</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5">
+        <v>29333.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>215130.15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>202900</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3700</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>60340.05</v>
+      </c>
+      <c r="D12" s="5">
+        <v>25100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5">
+        <v>449258.26</v>
+      </c>
+      <c r="H12" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUM(C4:C12)</f>
+        <v>481962.47999999992</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f>SUM(G4:G12)</f>
+        <v>632518.70000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/cai/partnerset_test_data.xlsx
+++ b/test_data/cai/partnerset_test_data.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1860" windowWidth="23760" windowHeight="12540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1680" windowWidth="23760" windowHeight="12540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="添加股东测试数据" sheetId="1" r:id="rId1"/>
+    <sheet name="编辑股东测试数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>名称0</t>
     <rPh sb="0" eb="1">
@@ -183,88 +183,94 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>短期借款</t>
-  </si>
-  <si>
-    <t>短期投资</t>
-  </si>
-  <si>
-    <t>应付票据</t>
-  </si>
-  <si>
-    <t>应收票据</t>
-  </si>
-  <si>
-    <t>应付账款</t>
-  </si>
-  <si>
-    <t>应收账款</t>
-  </si>
-  <si>
-    <t>预收账款</t>
-  </si>
-  <si>
-    <t>预付款项</t>
-  </si>
-  <si>
-    <t>应付职工薪酬</t>
-  </si>
-  <si>
-    <t>应收股利</t>
-  </si>
-  <si>
-    <t>应交税费</t>
-  </si>
-  <si>
-    <t>应收利息</t>
-  </si>
-  <si>
-    <t>应付利息</t>
-  </si>
-  <si>
-    <t>其他应收款</t>
-  </si>
-  <si>
-    <t>应付利润</t>
-  </si>
-  <si>
-    <t>存货</t>
-  </si>
-  <si>
-    <t>货币资金</t>
-  </si>
-  <si>
-    <t>其他应付款</t>
-  </si>
-  <si>
-    <t>其中：原材料</t>
-  </si>
-  <si>
-    <t>其他流动负债</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>资产</t>
-  </si>
-  <si>
-    <t>行次</t>
-  </si>
-  <si>
-    <t>期末余额</t>
-  </si>
-  <si>
-    <t>年初余额</t>
-  </si>
-  <si>
-    <t>负债和所有者权益</t>
-  </si>
-  <si>
-    <t>流动资产：</t>
-  </si>
-  <si>
-    <t>流动负债：</t>
+    <t>编辑用户</t>
+    <rPh sb="0" eb="1">
+      <t>bian ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、编辑股东名称</t>
+    <rPh sb="2" eb="3">
+      <t>bian j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mign c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑股东成功</t>
+  </si>
+  <si>
+    <t>目标股东名称1</t>
+    <rPh sb="0" eb="1">
+      <t>mu biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mign c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待编辑股东名称0</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bian ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实缴金额(元)2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景3</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi chang j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果4</t>
+    <rPh sb="0" eb="1">
+      <t>jie g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑用户</t>
+    <rPh sb="0" eb="1">
+      <t>bian j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑股东成功！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello2017-11-09</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +328,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF656980"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF656980"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF656980"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF656980"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -364,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,6 +415,15 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,6 +775,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>23525</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,326 +797,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3235</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-54366.76</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6">
-        <v>31</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-901.44</v>
-      </c>
-      <c r="H4" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6">
-        <v>400</v>
-      </c>
-      <c r="H5" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5">
-        <v>113514.13</v>
-      </c>
-      <c r="H6" s="5">
-        <v>100500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>172479.28</v>
-      </c>
-      <c r="D7" s="5">
-        <v>101100</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6">
-        <v>34</v>
-      </c>
-      <c r="G7" s="5">
-        <v>26117.83</v>
-      </c>
-      <c r="H7" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>81879.759999999995</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6">
-        <v>35</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7496.42</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6">
-        <v>36</v>
-      </c>
-      <c r="G9" s="5">
-        <v>29333.5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1300</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6">
-        <v>37</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>215130.15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>202900</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5">
-        <v>3700</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>60340.05</v>
-      </c>
-      <c r="D12" s="5">
-        <v>25100</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6">
-        <v>39</v>
-      </c>
-      <c r="G12" s="5">
-        <v>449258.26</v>
-      </c>
-      <c r="H12" s="5">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <f>SUM(C4:C12)</f>
-        <v>481962.47999999992</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="6">
-        <v>40</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14">
-        <f>SUM(G4:G12)</f>
-        <v>632518.70000000007</v>
-      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="22" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
